--- a/data/trans_bre/P1438_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1438_2023-Estudios-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>8.066759906378369</v>
+        <v>8.066759906378367</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.8276714061740479</v>
+        <v>0.8276714061740476</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.037996299529265</v>
+        <v>5.125156718445925</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.4232290580274267</v>
+        <v>0.4351484421452315</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.85339040605525</v>
+        <v>10.98988684623613</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.31696427001248</v>
+        <v>1.336955473166349</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.213029121723819</v>
+        <v>1.147635363722185</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2490234385234617</v>
+        <v>0.2231371088258765</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.558016922363317</v>
+        <v>3.546308617893878</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.054881188444085</v>
+        <v>1.01967144009913</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06254441890378762</v>
+        <v>-0.1298470850269588</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.03674163883806235</v>
+        <v>-0.06428332459009886</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.404976471435837</v>
+        <v>3.429459154932711</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>2.044567743781485</v>
+        <v>2.39024424140344</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.839628760433401</v>
+        <v>3.8396287604334</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.8247658202405236</v>
+        <v>0.8247658202405234</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.909915704750408</v>
+        <v>2.845702847318862</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.5502334562210972</v>
+        <v>0.5489202486775657</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.864350107827237</v>
+        <v>4.744467009023114</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.154777722319173</v>
+        <v>1.120138560824858</v>
       </c>
     </row>
     <row r="16">
